--- a/Sumif and countif.xlsx
+++ b/Sumif and countif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha Singh\Documents\Projects\excel for data analysis\Data Analysis with Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD74D9D-A1FC-495A-AF0D-DD4E6E33806C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB34DCBF-B1DA-407F-85C6-789E72F2E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{FBC98FF5-5CB1-424C-988D-F4C2A94AD323}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{FBC98FF5-5CB1-424C-988D-F4C2A94AD323}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumif" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -287,37 +279,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -331,23 +304,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1743,7 +1714,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1754,25 +1725,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1798,13 +1769,13 @@
       <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
@@ -1851,11 +1822,11 @@
       <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
-        <f>SUMIF(B2:B44,"East",E2:E44)</f>
+      <c r="J4" s="9">
+        <f>SUMIF(B2:B44,B2,E2:E44)</f>
         <v>691</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N4" t="s">
@@ -1884,10 +1855,10 @@
       <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
-      <c r="M5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="15">
+      <c r="M5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5">
         <v>1199</v>
       </c>
     </row>
@@ -1913,10 +1884,10 @@
       <c r="G6" s="6">
         <v>167.44</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
+      <c r="M6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>691</v>
       </c>
     </row>
@@ -1942,10 +1913,10 @@
       <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7">
         <v>231</v>
       </c>
     </row>
@@ -1971,10 +1942,10 @@
       <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>2121</v>
       </c>
     </row>
@@ -2023,13 +1994,13 @@
       <c r="G10" s="6">
         <v>63.68</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -2076,11 +2047,11 @@
       <c r="G12" s="6">
         <v>449.1</v>
       </c>
-      <c r="J12" s="16">
-        <f>SUMIF(D2:D44,"Binder",G2:G44)</f>
+      <c r="J12" s="9">
+        <f>SUMIF(D2:D44,D3,G2:G44)</f>
         <v>9577.65</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="7" t="s">
         <v>25</v>
       </c>
       <c r="N12" t="s">
@@ -2109,10 +2080,10 @@
       <c r="G13" s="6">
         <v>57.71</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="15">
+      <c r="M13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N13">
         <v>9577.65</v>
       </c>
     </row>
@@ -2138,10 +2109,10 @@
       <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="M14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14">
         <v>1700</v>
       </c>
     </row>
@@ -2167,10 +2138,10 @@
       <c r="G15" s="6">
         <v>174.65</v>
       </c>
-      <c r="M15" s="14" t="s">
+      <c r="M15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15">
         <v>2045.2199999999998</v>
       </c>
     </row>
@@ -2196,10 +2167,10 @@
       <c r="G16" s="6">
         <v>250</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="M16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16">
         <v>4169.87</v>
       </c>
     </row>
@@ -2225,10 +2196,10 @@
       <c r="G17" s="6">
         <v>255.84</v>
       </c>
-      <c r="M17" s="14" t="s">
+      <c r="M17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17">
         <v>2135.1400000000003</v>
       </c>
     </row>
@@ -2254,10 +2225,10 @@
       <c r="G18" s="6">
         <v>251.72</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="M18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18">
         <v>19627.879999999997</v>
       </c>
     </row>
@@ -2869,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C553128C-8977-4D74-8141-749DD5D9D7E3}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2881,112 +2852,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="22"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
-        <f>SUMIFS(G2:G44,B2:B44,"Central",D2:D44,"Pencil")</f>
+      <c r="J4" s="9">
+        <f>SUMIFS(G2:G44, B2:B44,"Central", D2:D44, "Pencil")</f>
         <v>1540.32</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
@@ -2994,51 +2964,51 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="M6" t="s">
@@ -3046,431 +3016,430 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="L7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>1540.3200000000002</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="L8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>363.70000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9">
         <v>231.12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10">
         <v>2135.1400000000003</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
-      <c r="J14" s="16">
-        <f>SUMIFS(E2:E44,C2:C44,"Jones",F2:F44,"&gt;5")</f>
-        <v>140</v>
+      <c r="J14" s="9">
+        <f>SUMIFS(E2:E44, C2:C44, "Jones", F2:F44, "&gt;4")</f>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="9">
         <f>SUMIFS(E2:E44,C2:C44,"Jones", D2:D44,"&lt;&gt;Pencil")</f>
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K22">
@@ -3478,29 +3447,29 @@
         <v>1912.5900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K23">
@@ -3508,29 +3477,29 @@
         <v>479.04</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K24">
@@ -3538,29 +3507,29 @@
         <v>2328.16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K25">
@@ -3568,29 +3537,29 @@
         <v>787.57</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K26">
@@ -3598,417 +3567,417 @@
         <v>318.68</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
     </row>
@@ -4019,60 +3988,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEF54BC-5073-4C28-B5DB-6F2C11240FD4}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
       <c r="H2">
@@ -4083,34 +4052,34 @@
         <f>COUNTIF(C1:C44,C2)&gt;3</f>
         <v>1</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
       <c r="H3">
@@ -4122,26 +4091,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
       <c r="H4">
@@ -4152,31 +4121,31 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K4" s="16">
-        <f>COUNTIF(C2:C44,"Gill")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="K4" s="9">
+        <f>COUNTIF(C2:C44, C5)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
       <c r="H5">
@@ -4188,26 +4157,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
       <c r="H6">
@@ -4218,36 +4187,35 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
       <c r="H7">
@@ -4259,26 +4227,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
       <c r="H8">
@@ -4290,26 +4258,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
       <c r="H9">
@@ -4321,26 +4289,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
       <c r="H10">
@@ -4352,26 +4320,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
       <c r="H11">
@@ -4383,26 +4351,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
       <c r="H12">
@@ -4414,26 +4382,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
       <c r="H13">
@@ -4445,26 +4413,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
       <c r="H14">
@@ -4476,26 +4444,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
       <c r="H15">
@@ -4507,26 +4475,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
       <c r="H16">
@@ -4539,25 +4507,25 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
       <c r="H17">
@@ -4570,25 +4538,25 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
       <c r="H18">
@@ -4601,25 +4569,25 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
       <c r="H19">
@@ -4632,25 +4600,25 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
       <c r="H20">
@@ -4663,25 +4631,25 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
       <c r="H21">
@@ -4694,25 +4662,25 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
       <c r="H22">
@@ -4725,25 +4693,25 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
       <c r="H23">
@@ -4756,25 +4724,25 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
       <c r="H24">
@@ -4787,25 +4755,25 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
       <c r="H25">
@@ -4818,25 +4786,25 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
       <c r="H26">
@@ -4849,25 +4817,25 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
       <c r="H27">
@@ -4880,25 +4848,25 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
       <c r="H28">
@@ -4911,25 +4879,25 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
       <c r="H29">
@@ -4942,25 +4910,25 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
       <c r="H30">
@@ -4973,25 +4941,25 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
       <c r="H31">
@@ -5004,25 +4972,25 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
       <c r="H32">
@@ -5035,25 +5003,25 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
       <c r="H33">
@@ -5066,25 +5034,25 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
       <c r="H34">
@@ -5097,25 +5065,25 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
       <c r="H35">
@@ -5128,25 +5096,25 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
       <c r="H36">
@@ -5159,25 +5127,25 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
       <c r="H37">
@@ -5190,25 +5158,25 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
       <c r="H38">
@@ -5221,25 +5189,25 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
       <c r="H39">
@@ -5252,25 +5220,25 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
       <c r="H40">
@@ -5283,25 +5251,25 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
       <c r="H41">
@@ -5314,25 +5282,25 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
       <c r="H42">
@@ -5345,25 +5313,25 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
       <c r="H43">
@@ -5376,25 +5344,25 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
       <c r="H44">
@@ -5421,153 +5389,153 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
+      <c r="A2" s="2">
         <v>43471</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>95</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>1.99</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>189.05</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
+      <c r="A3" s="2">
         <v>43488</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4">
         <v>50</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="6">
         <v>999.49999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="2">
         <v>43505</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="4">
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>4.99</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="6">
         <v>179.64000000000001</v>
       </c>
-      <c r="J4" s="16">
-        <f>COUNTIFS(A2:A44,"&gt;2-10-2019",B2:B44,"East")</f>
-        <v>6</v>
+      <c r="J4" s="9">
+        <f>COUNTIFS(B2:B44, "East", A2:A44, "&gt;10-2-19")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
+      <c r="A5" s="2">
         <v>43522</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="4">
         <v>27</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="6">
         <v>539.7299999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
+      <c r="A6" s="2">
         <v>43539</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="4">
         <v>56</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="5">
         <v>2.99</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="6">
         <v>167.44</v>
       </c>
       <c r="J6" t="s">
@@ -5575,880 +5543,880 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="2">
         <v>43556</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="5">
         <v>4.99</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="6">
         <v>299.40000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
+      <c r="A8" s="2">
         <v>43573</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="4">
         <v>75</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>1.99</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="6">
         <v>149.25</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="9">
         <f>COUNTIFS(D2:D44,"Pencil",C2:C44,"Gill")</f>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
+      <c r="A9" s="2">
         <v>43590</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>4.99</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="6">
         <v>449.1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
+      <c r="A10" s="2">
         <v>43607</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="4">
         <v>32</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>1.99</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="6">
         <v>63.68</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
+      <c r="A11" s="2">
         <v>43624</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
         <v>60</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>8.99</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="6">
         <v>539.4</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>43641</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="4">
         <v>90</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>4.99</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="6">
         <v>449.1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
+      <c r="A13" s="2">
         <v>43658</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
         <v>29</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>1.99</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="6">
         <v>57.71</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="A14" s="2">
         <v>43675</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
         <v>81</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="6">
         <v>1619.1899999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>43692</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="4">
         <v>35</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>4.99</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="6">
         <v>174.65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="2">
         <v>43709</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="4">
         <v>2</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>125</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="2">
         <v>43726</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="4">
         <v>16</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>15.99</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="6">
         <v>255.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>43743</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
         <v>28</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>8.99</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="6">
         <v>251.72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
+      <c r="A19" s="2">
         <v>43760</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="4">
         <v>64</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="5">
         <v>8.99</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="6">
         <v>575.36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
+      <c r="A20" s="2">
         <v>43777</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="4">
         <v>15</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="6">
         <v>299.84999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
+      <c r="A21" s="2">
         <v>43794</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="4">
         <v>96</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="5">
         <v>4.99</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="6">
         <v>479.04</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="8">
+      <c r="A22" s="2">
         <v>43811</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="4">
         <v>67</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="5">
         <v>1.29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="6">
         <v>86.43</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="8">
+      <c r="A23" s="2">
         <v>43828</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="4">
         <v>74</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="5">
         <v>15.99</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="6">
         <v>1183.26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="8">
+      <c r="A24" s="2">
         <v>43845</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4">
         <v>46</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="5">
         <v>8.99</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="6">
         <v>413.54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="8">
+      <c r="A25" s="2">
         <v>43862</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4">
         <v>87</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="5">
         <v>15</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="6">
         <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="8">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="10">
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="5">
         <v>4.99</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="6">
         <v>19.96</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="8">
+      <c r="A27" s="2">
         <v>43897</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>7</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="6">
         <v>139.92999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="8">
+      <c r="A28" s="2">
         <v>43914</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="4">
         <v>50</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>4.99</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="6">
         <v>249.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="8">
+      <c r="A29" s="2">
         <v>43931</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="4">
         <v>66</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>1.99</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="6">
         <v>131.34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+      <c r="A30" s="2">
         <v>43948</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>96</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="5">
         <v>4.99</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="6">
         <v>479.04</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="8">
+      <c r="A31" s="2">
         <v>43965</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>53</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="5">
         <v>1.29</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="6">
         <v>68.37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8">
+      <c r="A32" s="2">
         <v>43982</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="10">
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="4">
         <v>80</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="5">
         <v>8.99</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="6">
         <v>719.2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="8">
+      <c r="A33" s="2">
         <v>43999</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="10">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11">
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="5">
         <v>125</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="6">
         <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="8">
+      <c r="A34" s="2">
         <v>44016</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>62</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="5">
         <v>4.99</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="6">
         <v>309.38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="8">
+      <c r="A35" s="2">
         <v>44033</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>55</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="5">
         <v>12.49</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="6">
         <v>686.95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="8">
+      <c r="A36" s="2">
         <v>44050</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>42</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="5">
         <v>23.95</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="6">
         <v>1005.9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="8">
+      <c r="A37" s="2">
         <v>44067</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="10">
-        <v>3</v>
-      </c>
-      <c r="F37" s="11">
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="5">
         <v>275</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="6">
         <v>825</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="8">
+      <c r="A38" s="2">
         <v>44084</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="4">
         <v>7</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="5">
         <v>1.29</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="6">
         <v>9.0300000000000011</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="8">
+      <c r="A39" s="2">
         <v>44101</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="4">
         <v>76</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="5">
         <v>1.99</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="6">
         <v>151.24</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="8">
+      <c r="A40" s="2">
         <v>44118</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="4">
         <v>57</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="6">
         <v>1139.4299999999998</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="8">
+      <c r="A41" s="2">
         <v>44135</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="4">
         <v>14</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="5">
         <v>1.29</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="6">
         <v>18.060000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="8">
+      <c r="A42" s="2">
         <v>44152</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="10">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="4">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="5">
         <v>4.99</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="6">
         <v>54.89</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="8">
+      <c r="A43" s="2">
         <v>44169</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="10">
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4">
         <v>94</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="5">
         <v>19.989999999999998</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="6">
         <v>1879.06</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="8">
+      <c r="A44" s="2">
         <v>44186</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="4">
         <v>28</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="5">
         <v>4.99</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="6">
         <v>139.72</v>
       </c>
     </row>
